--- a/tests/fixtures/sample-input.xlsx
+++ b/tests/fixtures/sample-input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="visible" r:id="rId2"/>
@@ -375,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,10 +390,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -451,10 +447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,128 +460,128 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="4" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="2" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="6" s="7" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+    <row r="4" s="6" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="7" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
-    <row r="8" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
-    <row r="9" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
-    <row r="10" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+    <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1098,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,10 +1196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+  <dimension ref="A1:E1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,76 +1212,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+    <row r="1" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
